--- a/test data/data.xlsx
+++ b/test data/data.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580"/>
   </bookViews>
   <sheets>
-    <sheet name="consignmentnumber" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="consignmentsummary" sheetId="2" r:id="rId2"/>
     <sheet name="precondetails" sheetId="3" r:id="rId3"/>
     <sheet name="eventdetails" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Consignment Number</t>
-  </si>
-  <si>
-    <t>MPAGC0107074</t>
-  </si>
-  <si>
-    <t>PROC01036051</t>
-  </si>
-  <si>
-    <t>ABYD1234</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>PREC01048239</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>ConsignmentNO</t>
+  </si>
+  <si>
+    <t>ReceptacleID</t>
+  </si>
+  <si>
+    <t>CommonTestData</t>
+  </si>
+  <si>
+    <t>CARDITRECEPTACLEID00000111201</t>
+  </si>
+  <si>
+    <t>AllOntime</t>
+  </si>
+  <si>
+    <t>PREC01049379</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PRECON</t>
   </si>
 </sst>
 </file>
@@ -367,35 +385,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -407,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/test data/data.xlsx
+++ b/test data/data.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="consignmentsummary" sheetId="2" r:id="rId2"/>
-    <sheet name="precondetails" sheetId="3" r:id="rId3"/>
-    <sheet name="eventdetails" sheetId="4" r:id="rId4"/>
+    <sheet name="mailclassinfotable" sheetId="7" r:id="rId3"/>
+    <sheet name="handoverinfotable" sheetId="8" r:id="rId4"/>
+    <sheet name="cardittransporttable" sheetId="9" r:id="rId5"/>
+    <sheet name="eventinfotable" sheetId="10" r:id="rId6"/>
+    <sheet name="precondetails" sheetId="11" r:id="rId7"/>
+    <sheet name="receptacleinfotable" sheetId="12" r:id="rId8"/>
+    <sheet name="resconinformation" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>PREC01048239</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -34,19 +36,490 @@
     <t>CommonTestData</t>
   </si>
   <si>
-    <t>CARDITRECEPTACLEID00000111201</t>
-  </si>
-  <si>
     <t>AllOntime</t>
   </si>
   <si>
-    <t>PREC01049379</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>PRECON</t>
+  </si>
+  <si>
+    <t>Event_NA</t>
+  </si>
+  <si>
+    <t>Event_Delivered</t>
+  </si>
+  <si>
+    <t>Event_Received</t>
+  </si>
+  <si>
+    <t>Event_Enroute</t>
+  </si>
+  <si>
+    <t>Event_Cardit</t>
+  </si>
+  <si>
+    <t>Event_Precon</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RECEIVED ON TIME</t>
+  </si>
+  <si>
+    <t>DELIVERED ON TIME</t>
+  </si>
+  <si>
+    <t>Delivered (21)</t>
+  </si>
+  <si>
+    <t>HANDOVER ON TIME</t>
+  </si>
+  <si>
+    <t>Received (74)</t>
+  </si>
+  <si>
+    <t>ENROUTE</t>
+  </si>
+  <si>
+    <t>En route (31)</t>
+  </si>
+  <si>
+    <t>CREATED</t>
+  </si>
+  <si>
+    <t>CARDIT(9)</t>
+  </si>
+  <si>
+    <t>PRECON(14)</t>
+  </si>
+  <si>
+    <t>Consignment_Status_Precon</t>
+  </si>
+  <si>
+    <t>Consignment_Status_Cardit</t>
+  </si>
+  <si>
+    <t>Consignment_Status_Enroute</t>
+  </si>
+  <si>
+    <t>Consignment_Status_Received</t>
+  </si>
+  <si>
+    <t>Consignment_Status_Delivered</t>
+  </si>
+  <si>
+    <t>Consignment_Status_NA</t>
+  </si>
+  <si>
+    <t>Count_Flag_N</t>
+  </si>
+  <si>
+    <t>Count_Flag_F</t>
+  </si>
+  <si>
+    <t>AllLateDiscrepancy</t>
+  </si>
+  <si>
+    <t>HANDOVER LATE</t>
+  </si>
+  <si>
+    <t>Count_Flag_D</t>
+  </si>
+  <si>
+    <t>DISCREPANCY</t>
+  </si>
+  <si>
+    <t>DELIVERED LATE</t>
+  </si>
+  <si>
+    <t>RECEIVED LATE</t>
+  </si>
+  <si>
+    <t>PREC01050308</t>
+  </si>
+  <si>
+    <t>RESCON RECEIVED</t>
+  </si>
+  <si>
+    <t>PREC01050310</t>
+  </si>
+  <si>
+    <t>AllUnknown</t>
+  </si>
+  <si>
+    <t>PREC01050311</t>
+  </si>
+  <si>
+    <t>HANDOVER UNKNOWN</t>
+  </si>
+  <si>
+    <t>DELIVERED UNKNOWN</t>
+  </si>
+  <si>
+    <t>RECEIVED UNKNOWN</t>
+  </si>
+  <si>
+    <t>CARDITRECEPTACLEID00000111316</t>
+  </si>
+  <si>
+    <t>AllDelayed</t>
+  </si>
+  <si>
+    <t>HANDOVER DELAYED (sys)</t>
+  </si>
+  <si>
+    <t>HANDOVER DELAYED</t>
+  </si>
+  <si>
+    <t>DELIVERY DELAYED(sys)</t>
+  </si>
+  <si>
+    <t>DELIVERY DELAYED</t>
+  </si>
+  <si>
+    <t>RECEIVED DELAYED (sys)</t>
+  </si>
+  <si>
+    <t>RECEIVED DELAYED</t>
+  </si>
+  <si>
+    <t>Cstatus</t>
+  </si>
+  <si>
+    <t>CCompDate</t>
+  </si>
+  <si>
+    <t>Ccategory</t>
+  </si>
+  <si>
+    <t>Cdest</t>
+  </si>
+  <si>
+    <t>MailClassL</t>
+  </si>
+  <si>
+    <t>MailClassE</t>
+  </si>
+  <si>
+    <t>MailClassU</t>
+  </si>
+  <si>
+    <t>TotalCountL</t>
+  </si>
+  <si>
+    <t>TotalCountE</t>
+  </si>
+  <si>
+    <t>TotalCountU</t>
+  </si>
+  <si>
+    <t>WeightL</t>
+  </si>
+  <si>
+    <t>WeightE</t>
+  </si>
+  <si>
+    <t>WeightU</t>
+  </si>
+  <si>
+    <t>HOLC</t>
+  </si>
+  <si>
+    <t>HOCO</t>
+  </si>
+  <si>
+    <t>HDLC</t>
+  </si>
+  <si>
+    <t>HDCO</t>
+  </si>
+  <si>
+    <t>TQ</t>
+  </si>
+  <si>
+    <t>TCR</t>
+  </si>
+  <si>
+    <t>TDLC</t>
+  </si>
+  <si>
+    <t>TALC</t>
+  </si>
+  <si>
+    <t>TDDT</t>
+  </si>
+  <si>
+    <t>TADT</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>ECF</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>RecpID</t>
+  </si>
+  <si>
+    <t>RCJID</t>
+  </si>
+  <si>
+    <t>RCID</t>
+  </si>
+  <si>
+    <t>RCS</t>
+  </si>
+  <si>
+    <t>Letters (LC/AO)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>Main-Carriage (20)</t>
+  </si>
+  <si>
+    <t>AC865</t>
+  </si>
+  <si>
+    <t>RecpWt</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NGPHCA</t>
+  </si>
+  <si>
+    <t>CARDITFieldValidations</t>
+  </si>
+  <si>
+    <t>PREC01050325</t>
+  </si>
+  <si>
+    <t>12-10-18 14:05</t>
+  </si>
+  <si>
+    <t>12-10-18 15:05</t>
+  </si>
+  <si>
+    <t>CARDITRECEPTACLEID00000111355</t>
+  </si>
+  <si>
+    <t>CONTAINERJOURID320</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>CONTAINERNO108</t>
+  </si>
+  <si>
+    <t>PRECONfieldValidations</t>
+  </si>
+  <si>
+    <t>ConsignmentNo</t>
+  </si>
+  <si>
+    <t>Ccomdate</t>
+  </si>
+  <si>
+    <t>Receptype</t>
+  </si>
+  <si>
+    <t>RecepID</t>
+  </si>
+  <si>
+    <t>RecepserialNo</t>
+  </si>
+  <si>
+    <t>Rsubclass</t>
+  </si>
+  <si>
+    <t>DDI</t>
+  </si>
+  <si>
+    <t>RDGI</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>REI</t>
+  </si>
+  <si>
+    <t>EII</t>
+  </si>
+  <si>
+    <t>RWT</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>DID</t>
+  </si>
+  <si>
+    <t>RHC</t>
+  </si>
+  <si>
+    <t>SMOC01005926</t>
+  </si>
+  <si>
+    <t>12-10-18 07:18</t>
+  </si>
+  <si>
+    <t>Air (4)</t>
+  </si>
+  <si>
+    <t>AB1</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10-10-18 07:19</t>
+  </si>
+  <si>
+    <t>10-10-18 07:24</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>AAB</t>
+  </si>
+  <si>
+    <t>390.1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>GBCV6ALYHPITUS0251</t>
+  </si>
+  <si>
+    <t>PRECONRECEPTACLEID000000001053</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>preEvent</t>
+  </si>
+  <si>
+    <t>preEDT</t>
+  </si>
+  <si>
+    <t>preCS</t>
+  </si>
+  <si>
+    <t>preEL</t>
+  </si>
+  <si>
+    <t>12-10-18 07:10</t>
+  </si>
+  <si>
+    <t>ConsignEvent</t>
+  </si>
+  <si>
+    <t>PCN14</t>
+  </si>
+  <si>
+    <t>SMEC25000200</t>
+  </si>
+  <si>
+    <t>RESCONFieldValidations</t>
+  </si>
+  <si>
+    <t>CARDITRECEPTACLEID00000111170</t>
+  </si>
+  <si>
+    <t>SMEC25000204</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>RSC</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>GBCV6AGYHTES1198</t>
   </si>
 </sst>
 </file>
@@ -82,8 +555,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,55 +860,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -443,38 +1128,740 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test data/data.xlsx
+++ b/test data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="precondetails" sheetId="11" r:id="rId7"/>
     <sheet name="receptacleinfotable" sheetId="12" r:id="rId8"/>
     <sheet name="resconinformation" sheetId="13" r:id="rId9"/>
+    <sheet name="resditpartnertransinfo" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -489,12 +490,6 @@
     <t>RESCONFieldValidations</t>
   </si>
   <si>
-    <t>CARDITRECEPTACLEID00000111170</t>
-  </si>
-  <si>
-    <t>SMEC25000204</t>
-  </si>
-  <si>
     <t>NOP</t>
   </si>
   <si>
@@ -519,7 +514,109 @@
     <t>500</t>
   </si>
   <si>
-    <t>GBCV6AGYHTES1198</t>
+    <t>RESDITFieldValidations</t>
+  </si>
+  <si>
+    <t>15-10-18 12:21</t>
+  </si>
+  <si>
+    <t>Consignresponse</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CPwabNo</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CEDT</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>HLC</t>
+  </si>
+  <si>
+    <t>HLN</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>5BN</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>J1CCAA</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>TSQ</t>
+  </si>
+  <si>
+    <t>TCN</t>
+  </si>
+  <si>
+    <t>TDLN</t>
+  </si>
+  <si>
+    <t>TALN</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Etihad Airways</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Migeria</t>
+  </si>
+  <si>
+    <t>PREC01050330</t>
+  </si>
+  <si>
+    <t>CARDITRECEPTACLEID00000111322</t>
+  </si>
+  <si>
+    <t>RECEPCONTAINER85</t>
+  </si>
+  <si>
+    <t>RECEPLOADINGID85</t>
+  </si>
+  <si>
+    <t>RDT21</t>
+  </si>
+  <si>
+    <t>PREC01050331</t>
+  </si>
+  <si>
+    <t>CARDITRECEPTACLEID00000111341</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>15-10-18 01:10</t>
+  </si>
+  <si>
+    <t>GBCV6AGYHTES1211</t>
   </si>
 </sst>
 </file>
@@ -1126,12 +1223,165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,63 +1648,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>94</v>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1683,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1980,7 @@
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1737,6 +2022,26 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1746,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,11 +2062,12 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1772,93 +2078,99 @@
         <v>145</v>
       </c>
       <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>123</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P2" t="s">
-        <v>165</v>
+      <c r="P2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/test data/data.xlsx
+++ b/test data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="2580"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>GBCV6AGYHTES1211</t>
+  </si>
+  <si>
+    <t>OntimeDelayedLate</t>
   </si>
 </sst>
 </file>
@@ -957,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,6 +1219,44 @@
       </c>
       <c r="B7" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
